--- a/biology/Botanique/Rumiceae/Rumiceae.xlsx
+++ b/biology/Botanique/Rumiceae/Rumiceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rumiceae sont une tribu de plantes à fleurs de la famille des Polygonaceae, sous-famille des Polygonoideae. Elle comprend quatre genres, dont Rumex qui est le genre type. Cette tribu regroupe notamment la Rhubarbe et l'Oseille.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (15 mai 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (15 mai 2021) :
 Acetosa Mill. (synonyme de Rumex L.)
 Acetosella (Meisn.) Fourr. (synonyme de Rumex L.)
 Bucephalophora Pau (synonyme de Rumex L.)
@@ -521,7 +535,7 @@
 Oxyria Hill
 Rheum L.
 Rumex L.
-Selon The Taxonomicon  (15 mai 2021)[3] et l'INPN      (15 mai 2021)[1] :
+Selon The Taxonomicon  (15 mai 2021) et l'INPN      (15 mai 2021) :
 Emex Campdera, 1819, nom. cons.
 Oxyria J. Hill, 1765
 Rheum L., 1753
